--- a/tests/papers/iapial/iapial_qsdp.xlsx
+++ b/tests/papers/iapial/iapial_qsdp.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="90">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="322" uniqueCount="322">
   <si>
     <t>m</t>
   </si>
@@ -283,6 +283,702 @@
   </si>
   <si>
     <t>k0_avg_IPL_A1</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_A0_opt</t>
+  </si>
+  <si>
+    <t>IPL_A1_opt</t>
+  </si>
+  <si>
+    <t>IPL_A2_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_A0_feas</t>
+  </si>
+  <si>
+    <t>IPL_A1_feas</t>
+  </si>
+  <si>
+    <t>IPL_A2_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_A0_iter</t>
+  </si>
+  <si>
+    <t>IPL_A1_iter</t>
+  </si>
+  <si>
+    <t>IPL_A2_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_A0_time</t>
+  </si>
+  <si>
+    <t>IPL_A1_time</t>
+  </si>
+  <si>
+    <t>IPL_A2_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_A0_fval</t>
+  </si>
+  <si>
+    <t>IPL_A1_fval</t>
+  </si>
+  <si>
+    <t>IPL_A2_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A0</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A1</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_opt</t>
+  </si>
+  <si>
+    <t>IPL_A_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_feas</t>
+  </si>
+  <si>
+    <t>IPL_A_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_iter</t>
+  </si>
+  <si>
+    <t>IPL_A_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_time</t>
+  </si>
+  <si>
+    <t>IPL_A_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_fval</t>
+  </si>
+  <si>
+    <t>IPL_A_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_opt</t>
+  </si>
+  <si>
+    <t>IPL_A_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_feas</t>
+  </si>
+  <si>
+    <t>IPL_A_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_iter</t>
+  </si>
+  <si>
+    <t>IPL_A_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_time</t>
+  </si>
+  <si>
+    <t>IPL_A_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_fval</t>
+  </si>
+  <si>
+    <t>IPL_A_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_opt</t>
+  </si>
+  <si>
+    <t>IPL_A_opt</t>
+  </si>
+  <si>
+    <t>IPL_A2_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_feas</t>
+  </si>
+  <si>
+    <t>IPL_A_feas</t>
+  </si>
+  <si>
+    <t>IPL_A2_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_iter</t>
+  </si>
+  <si>
+    <t>IPL_A_iter</t>
+  </si>
+  <si>
+    <t>IPL_A2_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_time</t>
+  </si>
+  <si>
+    <t>IPL_A_time</t>
+  </si>
+  <si>
+    <t>IPL_A2_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_fval</t>
+  </si>
+  <si>
+    <t>IPL_A_fval</t>
+  </si>
+  <si>
+    <t>IPL_A2_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_opt</t>
+  </si>
+  <si>
+    <t>IPL_A_opt</t>
+  </si>
+  <si>
+    <t>IPL_A2_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_feas</t>
+  </si>
+  <si>
+    <t>IPL_A_feas</t>
+  </si>
+  <si>
+    <t>IPL_A2_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_iter</t>
+  </si>
+  <si>
+    <t>IPL_A_iter</t>
+  </si>
+  <si>
+    <t>IPL_A2_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_time</t>
+  </si>
+  <si>
+    <t>IPL_A_time</t>
+  </si>
+  <si>
+    <t>IPL_A2_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_fval</t>
+  </si>
+  <si>
+    <t>IPL_A_fval</t>
+  </si>
+  <si>
+    <t>IPL_A2_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A2</t>
+  </si>
+  <si>
+    <t>m</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>time_limit</t>
+  </si>
+  <si>
+    <t>iALM_opt</t>
+  </si>
+  <si>
+    <t>QP_opt</t>
+  </si>
+  <si>
+    <t>QP_A_opt</t>
+  </si>
+  <si>
+    <t>RQP_opt</t>
+  </si>
+  <si>
+    <t>IPL_opt</t>
+  </si>
+  <si>
+    <t>IPL_A_opt</t>
+  </si>
+  <si>
+    <t>IPL_A2_opt</t>
+  </si>
+  <si>
+    <t>iALM_feas</t>
+  </si>
+  <si>
+    <t>QP_feas</t>
+  </si>
+  <si>
+    <t>QP_A_feas</t>
+  </si>
+  <si>
+    <t>RQP_feas</t>
+  </si>
+  <si>
+    <t>IPL_feas</t>
+  </si>
+  <si>
+    <t>IPL_A_feas</t>
+  </si>
+  <si>
+    <t>IPL_A2_feas</t>
+  </si>
+  <si>
+    <t>iALM_iter</t>
+  </si>
+  <si>
+    <t>QP_iter</t>
+  </si>
+  <si>
+    <t>QP_A_iter</t>
+  </si>
+  <si>
+    <t>RQP_iter</t>
+  </si>
+  <si>
+    <t>IPL_iter</t>
+  </si>
+  <si>
+    <t>IPL_A_iter</t>
+  </si>
+  <si>
+    <t>IPL_A2_iter</t>
+  </si>
+  <si>
+    <t>iALM_time</t>
+  </si>
+  <si>
+    <t>QP_time</t>
+  </si>
+  <si>
+    <t>QP_A_time</t>
+  </si>
+  <si>
+    <t>RQP_time</t>
+  </si>
+  <si>
+    <t>IPL_time</t>
+  </si>
+  <si>
+    <t>IPL_A_time</t>
+  </si>
+  <si>
+    <t>IPL_A2_time</t>
+  </si>
+  <si>
+    <t>iALM_fval</t>
+  </si>
+  <si>
+    <t>QP_fval</t>
+  </si>
+  <si>
+    <t>QP_A_fval</t>
+  </si>
+  <si>
+    <t>RQP_fval</t>
+  </si>
+  <si>
+    <t>IPL_fval</t>
+  </si>
+  <si>
+    <t>IPL_A_fval</t>
+  </si>
+  <si>
+    <t>IPL_A2_fval</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A</t>
+  </si>
+  <si>
+    <t>k0_avg_IPL_A2</t>
+  </si>
+  <si>
+    <t>k0_max_IPL</t>
+  </si>
+  <si>
+    <t>k0_max_IPL_A</t>
+  </si>
+  <si>
+    <t>k0_max_IPL_A2</t>
   </si>
 </sst>
 </file>
@@ -303,7 +999,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="4">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -314,15 +1010,27 @@
     <border/>
     <border/>
     <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="9" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -332,7 +1040,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AD7"/>
+  <dimension ref="A1:AR7"/>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="4.140625" customWidth="true"/>
@@ -341,122 +1049,178 @@
     <col min="4" max="4" width="10.5703125" customWidth="true"/>
     <col min="5" max="5" width="10.5703125" customWidth="true"/>
     <col min="6" max="6" width="10.5703125" customWidth="true"/>
-    <col min="7" max="7" width="11" customWidth="true"/>
-    <col min="8" max="8" width="11" customWidth="true"/>
+    <col min="7" max="7" width="10.5703125" customWidth="true"/>
+    <col min="8" max="8" width="10.5703125" customWidth="true"/>
     <col min="9" max="9" width="10.5703125" customWidth="true"/>
-    <col min="10" max="10" width="10.7109375" customWidth="true"/>
+    <col min="10" max="10" width="11" customWidth="true"/>
     <col min="11" max="11" width="10.5703125" customWidth="true"/>
-    <col min="12" max="12" width="11.7109375" customWidth="true"/>
-    <col min="13" max="13" width="11.7109375" customWidth="true"/>
-    <col min="14" max="14" width="9.7109375" customWidth="true"/>
-    <col min="15" max="15" width="10.140625" customWidth="true"/>
-    <col min="16" max="16" width="9" customWidth="true"/>
-    <col min="17" max="17" width="11.140625" customWidth="true"/>
-    <col min="18" max="18" width="11.140625" customWidth="true"/>
-    <col min="19" max="19" width="10.7109375" customWidth="true"/>
-    <col min="20" max="20" width="11.140625" customWidth="true"/>
-    <col min="21" max="21" width="10" customWidth="true"/>
-    <col min="22" max="22" width="12.140625" customWidth="true"/>
-    <col min="23" max="23" width="12.140625" customWidth="true"/>
-    <col min="24" max="24" width="9.85546875" customWidth="true"/>
-    <col min="25" max="25" width="10.28515625" customWidth="true"/>
-    <col min="26" max="26" width="9.140625" customWidth="true"/>
-    <col min="27" max="27" width="11.28515625" customWidth="true"/>
-    <col min="28" max="28" width="11.28515625" customWidth="true"/>
-    <col min="29" max="29" width="14" customWidth="true"/>
-    <col min="30" max="30" width="14" customWidth="true"/>
+    <col min="12" max="12" width="10.5703125" customWidth="true"/>
+    <col min="13" max="13" width="10.7109375" customWidth="true"/>
+    <col min="14" max="14" width="10.5703125" customWidth="true"/>
+    <col min="15" max="15" width="10.5703125" customWidth="true"/>
+    <col min="16" max="16" width="10.7109375" customWidth="true"/>
+    <col min="17" max="17" width="11.7109375" customWidth="true"/>
+    <col min="18" max="18" width="9.7109375" customWidth="true"/>
+    <col min="19" max="19" width="7.85546875" customWidth="true"/>
+    <col min="20" max="20" width="10.140625" customWidth="true"/>
+    <col min="21" max="21" width="9" customWidth="true"/>
+    <col min="22" max="22" width="7.85546875" customWidth="true"/>
+    <col min="23" max="23" width="10.140625" customWidth="true"/>
+    <col min="24" max="24" width="11.140625" customWidth="true"/>
+    <col min="25" max="25" width="10.7109375" customWidth="true"/>
+    <col min="26" max="26" width="8.85546875" customWidth="true"/>
+    <col min="27" max="27" width="11.140625" customWidth="true"/>
+    <col min="28" max="28" width="10" customWidth="true"/>
+    <col min="29" max="29" width="8.85546875" customWidth="true"/>
+    <col min="30" max="30" width="11.140625" customWidth="true"/>
+    <col min="31" max="31" width="12.140625" customWidth="true"/>
+    <col min="32" max="32" width="9.85546875" customWidth="true"/>
+    <col min="33" max="33" width="8.7109375" customWidth="true"/>
+    <col min="34" max="34" width="10.28515625" customWidth="true"/>
+    <col min="35" max="35" width="9.140625" customWidth="true"/>
+    <col min="36" max="36" width="8.7109375" customWidth="true"/>
+    <col min="37" max="37" width="10.28515625" customWidth="true"/>
+    <col min="38" max="38" width="11.28515625" customWidth="true"/>
+    <col min="39" max="39" width="11.7109375" customWidth="true"/>
+    <col min="40" max="40" width="13" customWidth="true"/>
+    <col min="41" max="41" width="14" customWidth="true"/>
+    <col min="42" max="42" width="11.7109375" customWidth="true"/>
+    <col min="43" max="43" width="13.7109375" customWidth="true"/>
+    <col min="44" max="44" width="14.7109375" customWidth="true"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" s="0" t="s">
-        <v>60</v>
+        <v>278</v>
       </c>
       <c r="B1" s="0" t="s">
-        <v>61</v>
+        <v>279</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>62</v>
+        <v>280</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>63</v>
+        <v>281</v>
       </c>
       <c r="E1" s="0" t="s">
-        <v>64</v>
+        <v>282</v>
       </c>
       <c r="F1" s="0" t="s">
-        <v>65</v>
+        <v>283</v>
       </c>
       <c r="G1" s="0" t="s">
-        <v>66</v>
+        <v>284</v>
       </c>
       <c r="H1" s="0" t="s">
-        <v>67</v>
+        <v>285</v>
       </c>
       <c r="I1" s="0" t="s">
-        <v>68</v>
+        <v>286</v>
       </c>
       <c r="J1" s="0" t="s">
-        <v>69</v>
+        <v>287</v>
       </c>
       <c r="K1" s="0" t="s">
-        <v>70</v>
+        <v>288</v>
       </c>
       <c r="L1" s="0" t="s">
-        <v>71</v>
+        <v>289</v>
       </c>
       <c r="M1" s="0" t="s">
-        <v>72</v>
+        <v>290</v>
       </c>
       <c r="N1" s="0" t="s">
-        <v>73</v>
+        <v>291</v>
       </c>
       <c r="O1" s="0" t="s">
-        <v>74</v>
+        <v>292</v>
       </c>
       <c r="P1" s="0" t="s">
-        <v>75</v>
+        <v>293</v>
       </c>
       <c r="Q1" s="0" t="s">
-        <v>76</v>
+        <v>294</v>
       </c>
       <c r="R1" s="0" t="s">
-        <v>77</v>
+        <v>295</v>
       </c>
       <c r="S1" s="0" t="s">
-        <v>78</v>
+        <v>296</v>
       </c>
       <c r="T1" s="0" t="s">
-        <v>79</v>
+        <v>297</v>
       </c>
       <c r="U1" s="0" t="s">
-        <v>80</v>
+        <v>298</v>
       </c>
       <c r="V1" s="0" t="s">
-        <v>81</v>
+        <v>299</v>
       </c>
       <c r="W1" s="0" t="s">
-        <v>82</v>
+        <v>300</v>
       </c>
       <c r="X1" s="0" t="s">
-        <v>83</v>
+        <v>301</v>
       </c>
       <c r="Y1" s="0" t="s">
-        <v>84</v>
+        <v>302</v>
       </c>
       <c r="Z1" s="0" t="s">
-        <v>85</v>
+        <v>303</v>
       </c>
       <c r="AA1" s="0" t="s">
-        <v>86</v>
+        <v>304</v>
       </c>
       <c r="AB1" s="0" t="s">
-        <v>87</v>
+        <v>305</v>
       </c>
       <c r="AC1" s="0" t="s">
-        <v>88</v>
+        <v>306</v>
       </c>
       <c r="AD1" s="0" t="s">
-        <v>89</v>
+        <v>307</v>
+      </c>
+      <c r="AE1" s="0" t="s">
+        <v>308</v>
+      </c>
+      <c r="AF1" s="0" t="s">
+        <v>309</v>
+      </c>
+      <c r="AG1" s="0" t="s">
+        <v>310</v>
+      </c>
+      <c r="AH1" s="0" t="s">
+        <v>311</v>
+      </c>
+      <c r="AI1" s="0" t="s">
+        <v>312</v>
+      </c>
+      <c r="AJ1" s="0" t="s">
+        <v>313</v>
+      </c>
+      <c r="AK1" s="0" t="s">
+        <v>314</v>
+      </c>
+      <c r="AL1" s="0" t="s">
+        <v>315</v>
+      </c>
+      <c r="AM1" s="0" t="s">
+        <v>316</v>
+      </c>
+      <c r="AN1" s="0" t="s">
+        <v>317</v>
+      </c>
+      <c r="AO1" s="0" t="s">
+        <v>318</v>
+      </c>
+      <c r="AP1" s="0" t="s">
+        <v>319</v>
+      </c>
+      <c r="AQ1" s="0" t="s">
+        <v>320</v>
+      </c>
+      <c r="AR1" s="0" t="s">
+        <v>321</v>
       </c>
     </row>
     <row r="2">
@@ -473,81 +1237,123 @@
         <v>4.3785999999999997e-05</v>
       </c>
       <c r="E2" s="0">
+        <v>6.8868999999999994e-05</v>
+      </c>
+      <c r="F2" s="0">
         <v>9.5688999999999998e-05</v>
       </c>
-      <c r="F2" s="0">
+      <c r="G2" s="0">
         <v>6.7577999999999996e-05</v>
       </c>
-      <c r="G2" s="0">
+      <c r="H2" s="0">
+        <v>9.9407000000000006e-05</v>
+      </c>
+      <c r="I2" s="0">
         <v>9.8626000000000001e-05</v>
       </c>
-      <c r="H2" s="0">
+      <c r="J2" s="0">
         <v>9.8626000000000001e-05</v>
       </c>
-      <c r="I2" s="0">
+      <c r="K2" s="0">
         <v>8.3220999999999995e-05</v>
       </c>
-      <c r="J2" s="0">
+      <c r="L2" s="0">
+        <v>6.8464e-05</v>
+      </c>
+      <c r="M2" s="0">
         <v>6.8647999999999997e-05</v>
       </c>
-      <c r="K2" s="0">
+      <c r="N2" s="0">
         <v>6.8456999999999999e-05</v>
       </c>
-      <c r="L2" s="0">
+      <c r="O2" s="0">
+        <v>3.1412999999999999e-06</v>
+      </c>
+      <c r="P2" s="0">
         <v>2.4239e-05</v>
       </c>
-      <c r="M2" s="0">
+      <c r="Q2" s="0">
         <v>2.4239e-05</v>
       </c>
-      <c r="N2" s="0">
+      <c r="R2" s="0">
         <v>20407</v>
       </c>
-      <c r="O2" s="0">
+      <c r="S2" s="0">
+        <v>4131</v>
+      </c>
+      <c r="T2" s="0">
         <v>3201</v>
       </c>
-      <c r="P2" s="0">
+      <c r="U2" s="0">
         <v>1940</v>
       </c>
-      <c r="Q2" s="0">
+      <c r="V2" s="0">
+        <v>3012</v>
+      </c>
+      <c r="W2" s="0">
         <v>1380</v>
       </c>
-      <c r="R2" s="0">
+      <c r="X2" s="0">
         <v>1380</v>
       </c>
-      <c r="S2" s="0">
-        <v>104.64279999999999</v>
-      </c>
-      <c r="T2" s="0">
-        <v>33.445099999999996</v>
-      </c>
-      <c r="U2" s="0">
-        <v>20.5413</v>
-      </c>
-      <c r="V2" s="0">
-        <v>16.2563</v>
-      </c>
-      <c r="W2" s="0">
-        <v>16.215499999999999</v>
-      </c>
-      <c r="X2" s="0">
+      <c r="Y2" s="0">
+        <v>103.6069</v>
+      </c>
+      <c r="Z2" s="0">
+        <v>36.966299999999997</v>
+      </c>
+      <c r="AA2" s="0">
+        <v>34.249000000000002</v>
+      </c>
+      <c r="AB2" s="0">
+        <v>20.5289</v>
+      </c>
+      <c r="AC2" s="0">
+        <v>30.796299999999999</v>
+      </c>
+      <c r="AD2" s="0">
+        <v>17.023900000000001</v>
+      </c>
+      <c r="AE2" s="0">
+        <v>16.4298</v>
+      </c>
+      <c r="AF2" s="0">
         <v>0.10503</v>
       </c>
-      <c r="Y2" s="0">
+      <c r="AG2" s="0">
+        <v>0.10506</v>
+      </c>
+      <c r="AH2" s="0">
         <v>0.10507</v>
       </c>
-      <c r="Z2" s="0">
+      <c r="AI2" s="0">
         <v>0.10506</v>
       </c>
-      <c r="AA2" s="0">
+      <c r="AJ2" s="0">
+        <v>0.10523</v>
+      </c>
+      <c r="AK2" s="0">
         <v>0.10525</v>
       </c>
-      <c r="AB2" s="0">
+      <c r="AL2" s="0">
         <v>0.10525</v>
       </c>
-      <c r="AC2" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD2" s="0">
+      <c r="AM2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AN2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AO2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AQ2" s="0">
+        <v>1</v>
+      </c>
+      <c r="AR2" s="0">
         <v>1</v>
       </c>
     </row>
@@ -565,81 +1371,123 @@
         <v>1.3390000000000001e-05</v>
       </c>
       <c r="E3" s="0">
+        <v>6.8738999999999994e-05</v>
+      </c>
+      <c r="F3" s="0">
         <v>1.4711e-05</v>
       </c>
-      <c r="F3" s="0">
+      <c r="G3" s="0">
         <v>6.0683000000000002e-05</v>
       </c>
-      <c r="G3" s="0">
+      <c r="H3" s="0">
+        <v>9.1954999999999996e-05</v>
+      </c>
+      <c r="I3" s="0">
         <v>9.4026999999999999e-05</v>
       </c>
-      <c r="H3" s="0">
+      <c r="J3" s="0">
         <v>9.4026999999999999e-05</v>
       </c>
-      <c r="I3" s="0">
+      <c r="K3" s="0">
         <v>8.4121000000000003e-05</v>
       </c>
-      <c r="J3" s="0">
+      <c r="L3" s="0">
+        <v>5.5587000000000002e-05</v>
+      </c>
+      <c r="M3" s="0">
         <v>5.5512e-05</v>
       </c>
-      <c r="K3" s="0">
+      <c r="N3" s="0">
         <v>5.5590999999999997e-05</v>
       </c>
-      <c r="L3" s="0">
+      <c r="O3" s="0">
+        <v>3.8754000000000002e-06</v>
+      </c>
+      <c r="P3" s="0">
         <v>3.7038999999999998e-06</v>
       </c>
-      <c r="M3" s="0">
+      <c r="Q3" s="0">
         <v>3.7038999999999998e-06</v>
       </c>
-      <c r="N3" s="0">
+      <c r="R3" s="0">
         <v>36174</v>
       </c>
-      <c r="O3" s="0">
+      <c r="S3" s="0">
+        <v>3923</v>
+      </c>
+      <c r="T3" s="0">
         <v>4389</v>
       </c>
-      <c r="P3" s="0">
+      <c r="U3" s="0">
         <v>2038</v>
       </c>
-      <c r="Q3" s="0">
+      <c r="V3" s="0">
+        <v>1687</v>
+      </c>
+      <c r="W3" s="0">
         <v>759</v>
       </c>
-      <c r="R3" s="0">
+      <c r="X3" s="0">
         <v>759</v>
       </c>
-      <c r="S3" s="0">
-        <v>178.73599999999999</v>
-      </c>
-      <c r="T3" s="0">
-        <v>48.874200000000002</v>
-      </c>
-      <c r="U3" s="0">
-        <v>22.014500000000002</v>
-      </c>
-      <c r="V3" s="0">
-        <v>9.1956000000000007</v>
-      </c>
-      <c r="W3" s="0">
-        <v>9.0492000000000008</v>
-      </c>
-      <c r="X3" s="0">
+      <c r="Y3" s="0">
+        <v>180.90459999999999</v>
+      </c>
+      <c r="Z3" s="0">
+        <v>35.7774</v>
+      </c>
+      <c r="AA3" s="0">
+        <v>47.203600000000002</v>
+      </c>
+      <c r="AB3" s="0">
+        <v>21.749300000000002</v>
+      </c>
+      <c r="AC3" s="0">
+        <v>16.404199999999999</v>
+      </c>
+      <c r="AD3" s="0">
+        <v>8.9527999999999999</v>
+      </c>
+      <c r="AE3" s="0">
+        <v>9.1033000000000008</v>
+      </c>
+      <c r="AF3" s="0">
         <v>1.0907</v>
       </c>
-      <c r="Y3" s="0">
+      <c r="AG3" s="0">
         <v>1.0912999999999999</v>
       </c>
-      <c r="Z3" s="0">
+      <c r="AH3" s="0">
         <v>1.0912999999999999</v>
       </c>
-      <c r="AA3" s="0">
+      <c r="AI3" s="0">
+        <v>1.0912999999999999</v>
+      </c>
+      <c r="AJ3" s="0">
         <v>1.0928</v>
       </c>
-      <c r="AB3" s="0">
+      <c r="AK3" s="0">
         <v>1.0928</v>
       </c>
-      <c r="AC3" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD3" s="0">
+      <c r="AL3" s="0">
+        <v>1.0928</v>
+      </c>
+      <c r="AM3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AN3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AO3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AQ3" s="0">
+        <v>1</v>
+      </c>
+      <c r="AR3" s="0">
         <v>1</v>
       </c>
     </row>
@@ -657,81 +1505,123 @@
         <v>1.2466000000000001e-05</v>
       </c>
       <c r="E4" s="0">
+        <v>3.0682999999999997e-05</v>
+      </c>
+      <c r="F4" s="0">
         <v>3.7593000000000001e-07</v>
       </c>
-      <c r="F4" s="0">
+      <c r="G4" s="0">
         <v>3.1634000000000002e-05</v>
       </c>
-      <c r="G4" s="0">
+      <c r="H4" s="0">
+        <v>9.5290000000000002e-07</v>
+      </c>
+      <c r="I4" s="0">
         <v>8.7034999999999996e-07</v>
       </c>
-      <c r="H4" s="0">
+      <c r="J4" s="0">
         <v>8.7034999999999996e-07</v>
       </c>
-      <c r="I4" s="0">
+      <c r="K4" s="0">
         <v>5.3922999999999999e-05</v>
       </c>
-      <c r="J4" s="0">
+      <c r="L4" s="0">
+        <v>5.5421999999999999e-05</v>
+      </c>
+      <c r="M4" s="0">
         <v>5.5287000000000001e-05</v>
       </c>
-      <c r="K4" s="0">
+      <c r="N4" s="0">
         <v>5.5421999999999999e-05</v>
       </c>
-      <c r="L4" s="0">
+      <c r="O4" s="0">
+        <v>5.2494000000000003e-05</v>
+      </c>
+      <c r="P4" s="0">
         <v>5.2367000000000002e-05</v>
       </c>
-      <c r="M4" s="0">
+      <c r="Q4" s="0">
         <v>5.2367000000000002e-05</v>
       </c>
-      <c r="N4" s="0">
+      <c r="R4" s="0">
         <v>102072</v>
       </c>
-      <c r="O4" s="0">
+      <c r="S4" s="0">
+        <v>4139</v>
+      </c>
+      <c r="T4" s="0">
         <v>9273</v>
       </c>
-      <c r="P4" s="0">
+      <c r="U4" s="0">
         <v>2476</v>
       </c>
-      <c r="Q4" s="0">
+      <c r="V4" s="0">
+        <v>1295</v>
+      </c>
+      <c r="W4" s="0">
         <v>645</v>
       </c>
-      <c r="R4" s="0">
+      <c r="X4" s="0">
         <v>645</v>
       </c>
-      <c r="S4" s="0">
-        <v>506.07999999999998</v>
-      </c>
-      <c r="T4" s="0">
-        <v>100.6546</v>
-      </c>
-      <c r="U4" s="0">
-        <v>27.1737</v>
-      </c>
-      <c r="V4" s="0">
-        <v>7.8262999999999998</v>
-      </c>
-      <c r="W4" s="0">
-        <v>7.7804000000000002</v>
-      </c>
-      <c r="X4" s="0">
+      <c r="Y4" s="0">
+        <v>501.45370000000003</v>
+      </c>
+      <c r="Z4" s="0">
+        <v>37.602200000000003</v>
+      </c>
+      <c r="AA4" s="0">
+        <v>101.5474</v>
+      </c>
+      <c r="AB4" s="0">
+        <v>28.005800000000001</v>
+      </c>
+      <c r="AC4" s="0">
+        <v>13.3131</v>
+      </c>
+      <c r="AD4" s="0">
+        <v>7.8986000000000001</v>
+      </c>
+      <c r="AE4" s="0">
+        <v>7.7988999999999997</v>
+      </c>
+      <c r="AF4" s="0">
         <v>10.9526</v>
       </c>
-      <c r="Y4" s="0">
+      <c r="AG4" s="0">
+        <v>10.9526</v>
+      </c>
+      <c r="AH4" s="0">
         <v>10.952400000000001</v>
       </c>
-      <c r="Z4" s="0">
+      <c r="AI4" s="0">
         <v>10.9527</v>
       </c>
-      <c r="AA4" s="0">
+      <c r="AJ4" s="0">
         <v>10.956300000000001</v>
       </c>
-      <c r="AB4" s="0">
+      <c r="AK4" s="0">
         <v>10.956300000000001</v>
       </c>
-      <c r="AC4" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD4" s="0">
+      <c r="AL4" s="0">
+        <v>10.956300000000001</v>
+      </c>
+      <c r="AM4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AN4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AO4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AQ4" s="0">
+        <v>1</v>
+      </c>
+      <c r="AR4" s="0">
         <v>1</v>
       </c>
     </row>
@@ -749,82 +1639,124 @@
         <v>1.2468e-05</v>
       </c>
       <c r="E5" s="0">
+        <v>3.0689999999999999e-05</v>
+      </c>
+      <c r="F5" s="0">
         <v>3.7600999999999999e-07</v>
       </c>
-      <c r="F5" s="0">
+      <c r="G5" s="0">
         <v>3.1642e-05</v>
       </c>
-      <c r="G5" s="0">
+      <c r="H5" s="0">
+        <v>4.6432000000000002e-07</v>
+      </c>
+      <c r="I5" s="0">
+        <v>4.2968000000000002e-07</v>
+      </c>
+      <c r="J5" s="0">
         <v>8.7054999999999997e-07</v>
       </c>
-      <c r="H5" s="0">
-        <v>1.4276999999999999e-06</v>
-      </c>
-      <c r="I5" s="0">
+      <c r="K5" s="0">
         <v>5.5151000000000001e-05</v>
       </c>
-      <c r="J5" s="0">
+      <c r="L5" s="0">
+        <v>5.5421999999999999e-05</v>
+      </c>
+      <c r="M5" s="0">
         <v>5.5287000000000001e-05</v>
       </c>
-      <c r="K5" s="0">
+      <c r="N5" s="0">
         <v>5.5421999999999999e-05</v>
       </c>
-      <c r="L5" s="0">
+      <c r="O5" s="0">
+        <v>5.3746999999999999e-05</v>
+      </c>
+      <c r="P5" s="0">
+        <v>5.3792000000000003e-05</v>
+      </c>
+      <c r="Q5" s="0">
         <v>5.2367000000000002e-05</v>
       </c>
-      <c r="M5" s="0">
-        <v>2.6443000000000001e-05</v>
-      </c>
-      <c r="N5" s="0">
+      <c r="R5" s="0">
         <v>104287</v>
       </c>
-      <c r="O5" s="0">
+      <c r="S5" s="0">
+        <v>4139</v>
+      </c>
+      <c r="T5" s="0">
         <v>9273</v>
       </c>
-      <c r="P5" s="0">
+      <c r="U5" s="0">
         <v>2476</v>
       </c>
-      <c r="Q5" s="0">
+      <c r="V5" s="0">
+        <v>3306</v>
+      </c>
+      <c r="W5" s="0">
+        <v>1481</v>
+      </c>
+      <c r="X5" s="0">
         <v>645</v>
       </c>
-      <c r="R5" s="0">
-        <v>1002</v>
-      </c>
-      <c r="S5" s="0">
-        <v>527.1943</v>
-      </c>
-      <c r="T5" s="0">
-        <v>98.889099999999999</v>
-      </c>
-      <c r="U5" s="0">
-        <v>26.6676</v>
-      </c>
-      <c r="V5" s="0">
-        <v>7.7123999999999997</v>
-      </c>
-      <c r="W5" s="0">
-        <v>12.0303</v>
-      </c>
-      <c r="X5" s="0">
+      <c r="Y5" s="0">
+        <v>524.24559999999997</v>
+      </c>
+      <c r="Z5" s="0">
+        <v>36.4084</v>
+      </c>
+      <c r="AA5" s="0">
+        <v>99.042000000000002</v>
+      </c>
+      <c r="AB5" s="0">
+        <v>26.302399999999999</v>
+      </c>
+      <c r="AC5" s="0">
+        <v>32.4223</v>
+      </c>
+      <c r="AD5" s="0">
+        <v>17.345300000000002</v>
+      </c>
+      <c r="AE5" s="0">
+        <v>7.7381000000000002</v>
+      </c>
+      <c r="AF5" s="0">
         <v>109.5241</v>
       </c>
-      <c r="Y5" s="0">
+      <c r="AG5" s="0">
+        <v>109.5257</v>
+      </c>
+      <c r="AH5" s="0">
         <v>109.52379999999999</v>
       </c>
-      <c r="Z5" s="0">
+      <c r="AI5" s="0">
         <v>109.5273</v>
       </c>
-      <c r="AA5" s="0">
+      <c r="AJ5" s="0">
+        <v>109.5442</v>
+      </c>
+      <c r="AK5" s="0">
+        <v>109.5441</v>
+      </c>
+      <c r="AL5" s="0">
         <v>109.5628</v>
       </c>
-      <c r="AB5" s="0">
-        <v>109.593</v>
-      </c>
-      <c r="AC5" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD5" s="0">
-        <v>1.8</v>
+      <c r="AM5" s="0">
+        <v>4</v>
+      </c>
+      <c r="AN5" s="0">
+        <v>4</v>
+      </c>
+      <c r="AO5" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP5" s="0">
+        <v>4</v>
+      </c>
+      <c r="AQ5" s="0">
+        <v>4</v>
+      </c>
+      <c r="AR5" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -841,82 +1773,124 @@
         <v>1.3152e-05</v>
       </c>
       <c r="E6" s="0">
+        <v>6.8911999999999993e-05</v>
+      </c>
+      <c r="F6" s="0">
         <v>1.4747e-05</v>
       </c>
-      <c r="F6" s="0">
+      <c r="G6" s="0">
         <v>6.0835999999999998e-05</v>
       </c>
-      <c r="G6" s="0">
+      <c r="H6" s="0">
+        <v>5.8675000000000003e-05</v>
+      </c>
+      <c r="I6" s="0">
+        <v>5.7102000000000003e-05</v>
+      </c>
+      <c r="J6" s="0">
         <v>9.4263000000000002e-05</v>
       </c>
-      <c r="H6" s="0">
-        <v>7.1792000000000007e-05</v>
-      </c>
-      <c r="I6" s="0">
+      <c r="K6" s="0">
         <v>5.5349999999999997e-05</v>
       </c>
-      <c r="J6" s="0">
+      <c r="L6" s="0">
+        <v>5.5587000000000002e-05</v>
+      </c>
+      <c r="M6" s="0">
         <v>5.5512e-05</v>
       </c>
-      <c r="K6" s="0">
+      <c r="N6" s="0">
         <v>5.5590999999999997e-05</v>
       </c>
-      <c r="L6" s="0">
+      <c r="O6" s="0">
+        <v>7.5982000000000005e-05</v>
+      </c>
+      <c r="P6" s="0">
+        <v>7.4734999999999995e-05</v>
+      </c>
+      <c r="Q6" s="0">
         <v>3.7038999999999998e-06</v>
       </c>
-      <c r="M6" s="0">
-        <v>4.4403999999999997e-05</v>
-      </c>
-      <c r="N6" s="0">
+      <c r="R6" s="0">
         <v>48930</v>
       </c>
-      <c r="O6" s="0">
+      <c r="S6" s="0">
+        <v>3923</v>
+      </c>
+      <c r="T6" s="0">
         <v>4389</v>
       </c>
-      <c r="P6" s="0">
+      <c r="U6" s="0">
         <v>2038</v>
       </c>
-      <c r="Q6" s="0">
+      <c r="V6" s="0">
+        <v>2425</v>
+      </c>
+      <c r="W6" s="0">
+        <v>1041</v>
+      </c>
+      <c r="X6" s="0">
         <v>759</v>
       </c>
-      <c r="R6" s="0">
-        <v>865</v>
-      </c>
-      <c r="S6" s="0">
-        <v>243.15530000000001</v>
-      </c>
-      <c r="T6" s="0">
-        <v>46.8977</v>
-      </c>
-      <c r="U6" s="0">
-        <v>21.9603</v>
-      </c>
-      <c r="V6" s="0">
-        <v>9.0489999999999995</v>
-      </c>
-      <c r="W6" s="0">
-        <v>10.3606</v>
-      </c>
-      <c r="X6" s="0">
+      <c r="Y6" s="0">
+        <v>244.84180000000001</v>
+      </c>
+      <c r="Z6" s="0">
+        <v>35.294400000000003</v>
+      </c>
+      <c r="AA6" s="0">
+        <v>47.468400000000003</v>
+      </c>
+      <c r="AB6" s="0">
+        <v>22.0335</v>
+      </c>
+      <c r="AC6" s="0">
+        <v>23.6968</v>
+      </c>
+      <c r="AD6" s="0">
+        <v>12.6843</v>
+      </c>
+      <c r="AE6" s="0">
+        <v>9.3001000000000005</v>
+      </c>
+      <c r="AF6" s="0">
         <v>109.1271</v>
       </c>
-      <c r="Y6" s="0">
+      <c r="AG6" s="0">
+        <v>109.1294</v>
+      </c>
+      <c r="AH6" s="0">
         <v>109.128</v>
       </c>
-      <c r="Z6" s="0">
+      <c r="AI6" s="0">
         <v>109.1293</v>
       </c>
-      <c r="AA6" s="0">
+      <c r="AJ6" s="0">
+        <v>109.244</v>
+      </c>
+      <c r="AK6" s="0">
+        <v>109.242</v>
+      </c>
+      <c r="AL6" s="0">
         <v>109.2783</v>
       </c>
-      <c r="AB6" s="0">
-        <v>109.2668</v>
-      </c>
-      <c r="AC6" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD6" s="0">
-        <v>2.7999999999999998</v>
+      <c r="AM6" s="0">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AN6" s="0">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AO6" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP6" s="0">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AQ6" s="0">
+        <v>4.666666666666667</v>
+      </c>
+      <c r="AR6" s="0">
+        <v>1</v>
       </c>
     </row>
     <row r="7">
@@ -933,81 +1907,123 @@
         <v>4.5155999999999999e-05</v>
       </c>
       <c r="E7" s="0">
+        <v>8.1020999999999996e-05</v>
+      </c>
+      <c r="F7" s="0">
         <v>9.6372999999999994e-05</v>
       </c>
-      <c r="F7" s="0">
+      <c r="G7" s="0">
         <v>6.4147999999999996e-05</v>
       </c>
-      <c r="G7" s="0">
+      <c r="H7" s="0">
+        <v>9.9533999999999999e-05</v>
+      </c>
+      <c r="I7" s="0">
         <v>9.5237999999999999e-05</v>
       </c>
-      <c r="H7" s="0">
+      <c r="J7" s="0">
         <v>9.5237999999999999e-05</v>
       </c>
-      <c r="I7" s="0">
+      <c r="K7" s="0">
         <v>5.7352000000000002e-05</v>
       </c>
-      <c r="J7" s="0">
+      <c r="L7" s="0">
+        <v>5.7626e-05</v>
+      </c>
+      <c r="M7" s="0">
         <v>5.7742999999999999e-05</v>
       </c>
-      <c r="K7" s="0">
+      <c r="N7" s="0">
         <v>5.7550999999999998e-05</v>
       </c>
-      <c r="L7" s="0">
+      <c r="O7" s="0">
+        <v>1.0416e-05</v>
+      </c>
+      <c r="P7" s="0">
         <v>5.5198999999999998e-05</v>
       </c>
-      <c r="M7" s="0">
+      <c r="Q7" s="0">
         <v>5.5198999999999998e-05</v>
       </c>
-      <c r="N7" s="0">
+      <c r="R7" s="0">
         <v>39807</v>
       </c>
-      <c r="O7" s="0">
+      <c r="S7" s="0">
+        <v>4417</v>
+      </c>
+      <c r="T7" s="0">
         <v>3664</v>
       </c>
-      <c r="P7" s="0">
+      <c r="U7" s="0">
         <v>2146</v>
       </c>
-      <c r="Q7" s="0">
+      <c r="V7" s="0">
+        <v>1992</v>
+      </c>
+      <c r="W7" s="0">
         <v>922</v>
       </c>
-      <c r="R7" s="0">
+      <c r="X7" s="0">
         <v>922</v>
       </c>
-      <c r="S7" s="0">
-        <v>198.82560000000001</v>
-      </c>
-      <c r="T7" s="0">
-        <v>38.8202</v>
-      </c>
-      <c r="U7" s="0">
-        <v>23.213200000000001</v>
-      </c>
-      <c r="V7" s="0">
-        <v>11.361800000000001</v>
-      </c>
-      <c r="W7" s="0">
-        <v>11.162699999999999</v>
-      </c>
-      <c r="X7" s="0">
+      <c r="Y7" s="0">
+        <v>197.39830000000001</v>
+      </c>
+      <c r="Z7" s="0">
+        <v>38.619999999999997</v>
+      </c>
+      <c r="AA7" s="0">
+        <v>38.081400000000002</v>
+      </c>
+      <c r="AB7" s="0">
+        <v>22.455100000000002</v>
+      </c>
+      <c r="AC7" s="0">
+        <v>20.225200000000001</v>
+      </c>
+      <c r="AD7" s="0">
+        <v>10.9018</v>
+      </c>
+      <c r="AE7" s="0">
+        <v>10.802899999999999</v>
+      </c>
+      <c r="AF7" s="0">
         <v>105.07080000000001</v>
       </c>
-      <c r="Y7" s="0">
+      <c r="AG7" s="0">
+        <v>105.09099999999999</v>
+      </c>
+      <c r="AH7" s="0">
         <v>105.0977</v>
       </c>
-      <c r="Z7" s="0">
+      <c r="AI7" s="0">
         <v>105.0812</v>
       </c>
-      <c r="AA7" s="0">
+      <c r="AJ7" s="0">
+        <v>105.2332</v>
+      </c>
+      <c r="AK7" s="0">
         <v>105.1314</v>
       </c>
-      <c r="AB7" s="0">
+      <c r="AL7" s="0">
         <v>105.1314</v>
       </c>
-      <c r="AC7" s="0">
-        <v>1</v>
-      </c>
-      <c r="AD7" s="0">
+      <c r="AM7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AN7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AO7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AP7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AQ7" s="0">
+        <v>1</v>
+      </c>
+      <c r="AR7" s="0">
         <v>1</v>
       </c>
     </row>
